--- a/宏观经济/eta/美元指数_月度数据.xlsx
+++ b/宏观经济/eta/美元指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>98.8032</v>
+        <v>103.3008</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.62569999999999</v>
+        <v>98.6357</v>
       </c>
       <c r="C3" t="n">
-        <v>98.8584</v>
+        <v>103.2102</v>
       </c>
     </row>
     <row r="4">
